--- a/data/ledger.xlsx
+++ b/data/ledger.xlsx
@@ -2,16 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Безнал" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Наличные" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -51,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -414,19 +413,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="26.83203125" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -458,77 +455,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7676096317</v>
+        <v>722494604</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>План Test.docx</t>
+          <t>10 черный + 2 цвет, своя бумага</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>2.22</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-06-22 17:27:18</t>
+          <t>2025-06-22 22:36:18</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>7676096317</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>@anousommes</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Файл тг</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2025-06-22 17:41:10</t>
-        </is>
+        <v>3.15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>7676096317</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>План Test.docx</t>
-        </is>
-      </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2025-06-22 17:41:25</t>
-        </is>
+        <v>41.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7676096317</v>
+        <v>905836968</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>План Test.docx</t>
+          <t>KOF-1349-inf.pismo.docx</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-22 17:50:27</t>
+          <t>2025-06-23 01:52:17</t>
         </is>
       </c>
     </row>
@@ -538,18 +527,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>План Test.docx</t>
+          <t>Уважаемые_председатель_и_члены_государственной_экзаменационной_комиссии.docx</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-22 18:03:26</t>
+          <t>2025-06-23 12:15:23</t>
         </is>
       </c>
     </row>
@@ -559,18 +548,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>План Test.docx</t>
+          <t>Сократить.....docx</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-22 18:17:28</t>
+          <t>2025-06-23 12:15:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>шпоры по фо.docx</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>63</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-06-23 20:05:50</t>
         </is>
       </c>
     </row>
@@ -585,19 +595,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="1" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -669,6 +675,258 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>печ.pdf</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-06-22 21:03:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>печ.pdf</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-06-22 21:10:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>926309732</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-8589935974.pdf</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-06-23 13:58:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-8589935974.pdf</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-06-23 14:05:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>906437929</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>мяу.docx</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-06-23 17:05:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Вопросы к экзамену.docx</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-06-23 20:01:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>920670699</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>paymentCheck_2025-06-21T174535.652625.pdf</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-06-23 21:07:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>доклад (2).pdf</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-06-23 21:08:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294969920.pdf</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-06-24 00:41:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294969844.pdf</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-06-24 00:41:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>998332738</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>общага.docx</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-06-24 10:59:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>paymentCheck_2025-06-24T09:24:11.1961201.pdf</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-06-24 11:12:28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/ledger.xlsx
+++ b/data/ledger.xlsx
@@ -2,16 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Безнал" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Наличные" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -51,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -414,19 +413,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="26.83203125" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -458,77 +455,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7676096317</v>
+        <v>722494604</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>План Test.docx</t>
+          <t>10 черный + 2 цвет, своя бумага</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>2.22</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-06-22 17:27:18</t>
+          <t>2025-06-22 22:36:18</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>7676096317</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>@anousommes</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Файл тг</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2025-06-22 17:41:10</t>
-        </is>
+        <v>3.15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>7676096317</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>План Test.docx</t>
-        </is>
-      </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2025-06-22 17:41:25</t>
-        </is>
+        <v>41.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7676096317</v>
+        <v>905836968</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>План Test.docx</t>
+          <t>KOF-1349-inf.pismo.docx</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-22 17:50:27</t>
+          <t>2025-06-23 01:52:17</t>
         </is>
       </c>
     </row>
@@ -538,18 +527,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>План Test.docx</t>
+          <t>Уважаемые_председатель_и_члены_государственной_экзаменационной_комиссии.docx</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-22 18:03:26</t>
+          <t>2025-06-23 12:15:23</t>
         </is>
       </c>
     </row>
@@ -559,18 +548,86 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>План Test.docx</t>
+          <t>Сократить.....docx</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-22 18:17:28</t>
+          <t>2025-06-23 12:15:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>шпоры по фо.docx</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>63</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-06-23 20:05:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-12884903161.pdf</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:50:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>886870747</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:53:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1105561639</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:57:31</t>
         </is>
       </c>
     </row>
@@ -585,19 +642,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="1" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -669,6 +722,523 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>печ.pdf</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-06-22 21:03:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>печ.pdf</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-06-22 21:10:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>926309732</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-8589935974.pdf</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-06-23 13:58:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-8589935974.pdf</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-06-23 14:05:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>906437929</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>мяу.docx</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-06-23 17:05:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Вопросы к экзамену.docx</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-06-23 20:01:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>920670699</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>paymentCheck_2025-06-21T174535.652625.pdf</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-06-23 21:07:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>доклад (2).pdf</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-06-23 21:08:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294969920.pdf</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-06-24 00:41:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294969844.pdf</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-06-24 00:41:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>998332738</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>общага.docx</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-06-24 10:59:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>paymentCheck_2025-06-24T09:24:11.1961201.pdf</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-06-24 11:12:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>722494604</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>___ДОКЛАД Прибыль Вика.docx</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:19:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>630179592</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ДОКЛАД.docx</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:21:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>___ДОКЛАД Прибыль Вика.docx</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:29:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1105561639</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>paymentCheck_2025-06-23T213348.0405392.pdf</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:50:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1105561639</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:50:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1105561639</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>paymentCheck_2025-06-23T213348.0405392.pdf</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:52:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>886870747</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>953b6c0339f3de84a1a1c8cf14586664.pdf</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:53:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>886870747</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>953b6c0339f3de84a1a1c8cf14586664.pdf</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:54:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>886870747</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ed62cc45a9f796ed3621ae426babd9ad.pdf</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:56:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1105561639</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294968001.pdf</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:57:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1105561639</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294967982.pdf</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:58:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1274563633</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-12884903161.pdf</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:06:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1919932563</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>a054f6f0ed8edf522cfe0455c15de824.pdf</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2025-06-24 18:55:59</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/ledger.xlsx
+++ b/data/ledger.xlsx
@@ -642,7 +642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1239,6 +1239,111 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>печать (1).docx</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2025-06-26 07:59:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ee71121c452ebe95882145ee5a20077b.pdf</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2025-06-26 12:26:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>b40d26a2f26fd1f152f53ad626929df7.pdf</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2025-06-26 13:12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>746382370</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Курсовая Прашкович.docx</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2025-06-26 14:59:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>печать.pdf</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>14</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2025-06-26 19:56:01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/ledger.xlsx
+++ b/data/ledger.xlsx
@@ -642,7 +642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1344,6 +1344,27 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294968789.docx</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2025-06-28 00:32:51</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/ledger.xlsx
+++ b/data/ledger.xlsx
@@ -642,7 +642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1365,6 +1365,27 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294968789.docx</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2025-06-28 01:33:45</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/ledger.xlsx
+++ b/data/ledger.xlsx
@@ -642,7 +642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1386,6 +1386,153 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294968802.pdf</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:22:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ПЕЧАТЬ11.docx</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:23:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294968802.pdf</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:23:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294968802.pdf</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294968802.pdf</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:25:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>357d1a45e0e15379ea555a7e8964ca76.pdf</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:29:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек.docx</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:33:43</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/ledger.xlsx
+++ b/data/ledger.xlsx
@@ -642,7 +642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,6 +1533,48 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294968802.pdf</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2025-06-28 20:15:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294968802.pdf</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2025-06-28 20:16:28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/ledger.xlsx
+++ b/data/ledger.xlsx
@@ -642,7 +642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1575,6 +1575,90 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>M-_______ ___-17179869376.pdf</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2025-06-30 12:59:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>M-_______ ___-17179869376.pdf</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2025-06-30 13:33:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>M-_______ ___-17179869376.pdf</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2025-06-30 13:34:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>mbank-02-07-25_17-09-14.pdf</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2025-07-04 11:54:21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/ledger.xlsx
+++ b/data/ledger.xlsx
@@ -642,7 +642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1659,6 +1659,69 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>литература на лето.docx</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2025-07-04 14:13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>литература на лето.docx</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2025-07-04 14:15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>литература на лето.docx</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2025-07-04 14:15:28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/ledger.xlsx
+++ b/data/ledger.xlsx
@@ -642,7 +642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1722,6 +1722,342 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>6, 7.docx</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2025-07-07 01:17:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>6, 7.docx</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2025-07-07 01:18:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>6, 7.docx</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>4</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2025-07-07 01:19:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>6, 7.docx</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2025-07-07 01:25:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>3.docx</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2025-07-07 01:46:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>6, 7.docx</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2025-07-07 01:47:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>debug.pdf</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2025-07-09 15:07:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>debug.pdf</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2025-07-09 15:09:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>debug.pdf</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2025-07-09 15:11:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>debug.pdf</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>4</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2025-07-09 15:34:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>debug.pdf</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>4</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2025-07-09 15:47:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>debug.pdf</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>4</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2025-07-09 15:49:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Radkovich_Otchetik.docx</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>33</v>
+      </c>
+      <c r="D64" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2025-07-09 15:51:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Radkovich_Otchetik.docx</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>33</v>
+      </c>
+      <c r="D65" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2025-07-09 15:54:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Radkovich_Otchetik.docx</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>33</v>
+      </c>
+      <c r="D66" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2025-07-09 15:54:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Radkovich_Otchetik.docx</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>33</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2025-07-09 15:57:15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/ledger.xlsx
+++ b/data/ledger.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -584,6 +584,53 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-12884903161.pdf</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:50:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>886870747</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:53:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1105561639</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:57:31</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -595,7 +642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -927,6 +974,1090 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>722494604</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>___ДОКЛАД Прибыль Вика.docx</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:19:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>630179592</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ДОКЛАД.docx</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:21:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>___ДОКЛАД Прибыль Вика.docx</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-06-24 12:29:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1105561639</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>paymentCheck_2025-06-23T213348.0405392.pdf</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:50:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1105561639</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:50:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1105561639</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>paymentCheck_2025-06-23T213348.0405392.pdf</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:52:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>886870747</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>953b6c0339f3de84a1a1c8cf14586664.pdf</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:53:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>886870747</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>953b6c0339f3de84a1a1c8cf14586664.pdf</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:54:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>886870747</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ed62cc45a9f796ed3621ae426babd9ad.pdf</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:56:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1105561639</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294968001.pdf</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:57:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1105561639</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294967982.pdf</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-06-24 15:58:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1274563633</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-12884903161.pdf</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-06-24 16:06:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1919932563</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>a054f6f0ed8edf522cfe0455c15de824.pdf</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2025-06-24 18:55:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>печать (1).docx</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2025-06-26 07:59:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ee71121c452ebe95882145ee5a20077b.pdf</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2025-06-26 12:26:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>b40d26a2f26fd1f152f53ad626929df7.pdf</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2025-06-26 13:12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>746382370</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Курсовая Прашкович.docx</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2025-06-26 14:59:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>печать.pdf</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>14</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2025-06-26 19:56:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294968789.docx</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2025-06-28 00:32:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294968789.docx</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2025-06-28 01:33:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294968802.pdf</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:22:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ПЕЧАТЬ11.docx</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:23:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294968802.pdf</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:23:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294968802.pdf</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294968802.pdf</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:25:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>357d1a45e0e15379ea555a7e8964ca76.pdf</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:29:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек.docx</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2025-06-28 14:33:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294968802.pdf</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2025-06-28 20:15:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>M-Банкинг чек-4294968802.pdf</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2025-06-28 20:16:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>M-_______ ___-17179869376.pdf</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2025-06-30 12:59:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>M-_______ ___-17179869376.pdf</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2025-06-30 13:33:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>M-_______ ___-17179869376.pdf</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2025-06-30 13:34:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>mbank-02-07-25_17-09-14.pdf</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2025-07-04 11:54:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>литература на лето.docx</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2025-07-04 14:13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>литература на лето.docx</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2025-07-04 14:15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>литература на лето.docx</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2025-07-04 14:15:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>6, 7.docx</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2025-07-07 01:17:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>6, 7.docx</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2025-07-07 01:18:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>6, 7.docx</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>4</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2025-07-07 01:19:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>6, 7.docx</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2025-07-07 01:25:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>3.docx</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2025-07-07 01:46:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>6, 7.docx</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2025-07-07 01:47:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>debug.pdf</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2025-07-09 15:07:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>debug.pdf</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2025-07-09 15:09:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>debug.pdf</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2025-07-09 15:11:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>debug.pdf</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>4</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2025-07-09 15:34:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>debug.pdf</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>4</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2025-07-09 15:47:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>debug.pdf</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>4</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2025-07-09 15:49:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Radkovich_Otchetik.docx</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>33</v>
+      </c>
+      <c r="D64" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2025-07-09 15:51:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Radkovich_Otchetik.docx</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>33</v>
+      </c>
+      <c r="D65" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2025-07-09 15:54:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Radkovich_Otchetik.docx</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>33</v>
+      </c>
+      <c r="D66" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2025-07-09 15:54:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Radkovich_Otchetik.docx</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>33</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2025-07-09 15:57:15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/ledger.xlsx
+++ b/data/ledger.xlsx
@@ -642,7 +642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2058,6 +2058,447 @@
         </is>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Ходатайство студенты 2025.docx</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2025-07-11 21:49:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Ходатайство студенты 2025.docx</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2025-07-11 21:54:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Ходатайство студенты 2025.docx</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2025-07-11 21:56:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Ходатайство студенты 2025.docx</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2025-07-11 22:00:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>отчет маз 9docx.pdf</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>40</v>
+      </c>
+      <c r="D72" t="n">
+        <v>8</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2025-07-11 22:01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>отчет маз 9docx.pdf</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>40</v>
+      </c>
+      <c r="D73" t="n">
+        <v>8</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2025-07-11 22:15:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>отчет маз 9docx.pdf</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>40</v>
+      </c>
+      <c r="D74" t="n">
+        <v>8</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2025-07-11 22:23:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>отчет маз 9docx.pdf</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>40</v>
+      </c>
+      <c r="D75" t="n">
+        <v>8</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2025-07-11 22:25:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>отчет маз 9docx.pdf</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>40</v>
+      </c>
+      <c r="D76" t="n">
+        <v>8</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2025-07-11 22:34:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>отчет маз 9docx.pdf</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>40</v>
+      </c>
+      <c r="D77" t="n">
+        <v>8</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2025-07-11 22:38:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>отчет маз 9docx.pdf</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>40</v>
+      </c>
+      <c r="D78" t="n">
+        <v>8</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2025-07-11 22:58:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>отчет маз 9docx.pdf</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>40</v>
+      </c>
+      <c r="D79" t="n">
+        <v>8</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2025-07-11 23:00:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>отчет маз 9docx.pdf</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>40</v>
+      </c>
+      <c r="D80" t="n">
+        <v>8</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2025-07-11 23:03:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>отчет маз 9docx.pdf</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>40</v>
+      </c>
+      <c r="D81" t="n">
+        <v>8</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2025-07-11 23:11:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>отчет маз 9docx.pdf</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>40</v>
+      </c>
+      <c r="D82" t="n">
+        <v>8</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2025-07-11 23:17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>отчет маз 9docx.pdf</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>40</v>
+      </c>
+      <c r="D83" t="n">
+        <v>8</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2025-07-11 23:34:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>отчет маз 9docx.pdf</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>40</v>
+      </c>
+      <c r="D84" t="n">
+        <v>8</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2025-07-11 23:36:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>отчет маз 9docx.pdf</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>40</v>
+      </c>
+      <c r="D85" t="n">
+        <v>8</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2025-07-11 23:41:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>отчет маз 9docx.pdf</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>40</v>
+      </c>
+      <c r="D86" t="n">
+        <v>8</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2025-07-11 23:44:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>отчет маз 9docx.pdf</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>40</v>
+      </c>
+      <c r="D87" t="n">
+        <v>8</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2025-07-11 23:45:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>7676096317</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>отчет маз 9docx.pdf</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>40</v>
+      </c>
+      <c r="D88" t="n">
+        <v>8</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2025-07-11 23:49:01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
